--- a/documentation/Definitions_donnees.xlsx
+++ b/documentation/Definitions_donnees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperators-my.sharepoint.com/personal/jimmy_levesque_cgic_cooperators_ca/Documents/Desktop/Repos/datasciencecompetition2023/final_dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperators-my.sharepoint.com/personal/jimmy_levesque_cgic_cooperators_ca/Documents/Desktop/Repos/datasciencecompetition2023/bitbucket_pour_etudiants/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{10C45CB6-1881-4BEB-803B-B28776FF366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEEF0A20-F35F-47ED-AAB6-AFAD39E968A4}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{10C45CB6-1881-4BEB-803B-B28776FF366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D2804A4-F020-48F7-B0A5-61DEF1A2D575}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{70D5D0AF-3108-474C-8C6A-14CE6FF1FF5C}"/>
+    <workbookView xWindow="5280" yWindow="2835" windowWidth="28800" windowHeight="15435" xr2:uid="{70D5D0AF-3108-474C-8C6A-14CE6FF1FF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>RECL_ID_CAT</t>
   </si>
@@ -104,9 +104,6 @@
     <t>VEH_GARE_LATITUDE_NUM</t>
   </si>
   <si>
-    <t>COND_NB_HSIT_RECL_CAT</t>
-  </si>
-  <si>
     <t>COND_GROUPE_CAT</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Date à laquelle le sinistre a été divulguée à la compagnie d'assurance par l'assuré</t>
   </si>
   <si>
-    <t>Type de sinistre</t>
-  </si>
-  <si>
     <t>Indique si un des conducteurs avait consommé alcool ou drogue</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>Transmission du véhicule</t>
   </si>
   <si>
-    <t>Style  de carrosserie du véhicule</t>
-  </si>
-  <si>
     <t>Indique si le véhicule est décapotable</t>
   </si>
   <si>
@@ -170,12 +161,6 @@
     <t>Indique si le véhicule est équipé d'un système de stationnement automatique</t>
   </si>
   <si>
-    <t>Valeur actuelle du véhicule</t>
-  </si>
-  <si>
-    <t>Prime annuelle du véhicule</t>
-  </si>
-  <si>
     <t>Code postal où le véhicule est généralement garé</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>Longitude où le véhicule est généralement garé</t>
   </si>
   <si>
-    <t>Nomber historique de réclamation du conducteur</t>
-  </si>
-  <si>
     <t>Groupe auquel le conducteur fait parti</t>
   </si>
   <si>
@@ -222,16 +204,133 @@
   </si>
   <si>
     <t>Coût pour réparer le véhicule (inconnu au moment où l'on doit faire la prédiction, seulement dans le train set)</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Identification number of the Claim</t>
+  </si>
+  <si>
+    <t>Type of loss that caused damages</t>
+  </si>
+  <si>
+    <t>Type de sinistre qui a causé les dommages</t>
+  </si>
+  <si>
+    <t>Indicator if one of the driver was driving under the influence of alcohol or drugs</t>
+  </si>
+  <si>
+    <t>Vehicle make</t>
+  </si>
+  <si>
+    <t>Vehicle color</t>
+  </si>
+  <si>
+    <t>Vehicle age</t>
+  </si>
+  <si>
+    <t>Vehicule transmission</t>
+  </si>
+  <si>
+    <t>Vehicule body style</t>
+  </si>
+  <si>
+    <t>Style de carrosserie du véhicule</t>
+  </si>
+  <si>
+    <t>Indicator if the vehicle is a convertible</t>
+  </si>
+  <si>
+    <t>Number of horspower on the vehicle</t>
+  </si>
+  <si>
+    <t>Indicator if the vehicle is equipped with cameras</t>
+  </si>
+  <si>
+    <t>Indicator if the vehicle has a automatic parking feature</t>
+  </si>
+  <si>
+    <t>Actual Cash Value of the vehicle (ie. Market price)</t>
+  </si>
+  <si>
+    <t>Valeur actuelle du véhicule (ie. Prix du marché)</t>
+  </si>
+  <si>
+    <t>Prime annuelle du véhicule (ie. Coût payé par l'assuré pour assurer son véhicule)</t>
+  </si>
+  <si>
+    <t>Annual premium for the vehicle (ie. Price paid by the insured to insure his vehicle)</t>
+  </si>
+  <si>
+    <t>Nombre historique de réclamation du conducteur</t>
+  </si>
+  <si>
+    <t>Historical number of claims for the driver</t>
+  </si>
+  <si>
+    <t>Group the driver belongs</t>
+  </si>
+  <si>
+    <t>Date at which the driver obtained his driver license</t>
+  </si>
+  <si>
+    <t>Indicator if the driver had a claim in the year prior</t>
+  </si>
+  <si>
+    <t>Deductible on the policy</t>
+  </si>
+  <si>
+    <t>Cost to repair the damages on the vehicle (unknown at the time we need to make prediction, only in train set)</t>
+  </si>
+  <si>
+    <t>COND_NB_HIST_RECL_CAT</t>
+  </si>
+  <si>
+    <t>Loss date (ie. date at which the damages occured)</t>
+  </si>
+  <si>
+    <t>Reported date (ie. date at which damages were reported to the insurance company by the insured)</t>
+  </si>
+  <si>
+    <t>Distance in kilometers between loss location and where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Postal code where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Municipality where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Province where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Latitude where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Longitude where the vehicle is usually garaged</t>
+  </si>
+  <si>
+    <t>Number of years since the driver obtained his driver license</t>
+  </si>
+  <si>
+    <t>Total number of drivers allowed to drive the vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,8 +356,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,264 +673,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49091B-E803-4FFF-9B02-C76B41947BC8}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
       <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
